--- a/data/trans_orig/MCS12_SP-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Dificultad-trans_orig.xlsx
@@ -681,16 +681,16 @@
         <v>48.41178436830764</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>47.20941922048417</v>
+        <v>47.20941922048418</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>49.49161608965818</v>
+        <v>49.49161608965819</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>49.04938746051807</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49.29627085322272</v>
+        <v>49.29627085322273</v>
       </c>
       <c r="N4" s="5" t="n">
         <v>48.27891693255261</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>49.54421760736732</v>
+        <v>49.48044008598586</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>50.5848155124989</v>
+        <v>50.66445088540664</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49.72629189288419</v>
+        <v>49.73243253437152</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48.53457884907083</v>
+        <v>48.47927373109318</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>48.29260313610393</v>
+        <v>48.33195963887329</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>46.33729719821688</v>
+        <v>46.2500625569057</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>47.83976259036266</v>
+        <v>47.736999920701</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>46.32002724802496</v>
+        <v>46.20548114884436</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>49.01242199559213</v>
+        <v>48.96407764545638</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48.56946367574327</v>
+        <v>48.54517666464292</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48.877690174534</v>
+        <v>48.86762929981851</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>47.54599009855527</v>
+        <v>47.5499152916124</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>51.01183805855018</v>
+        <v>50.95908003950668</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>51.69712596491803</v>
+        <v>51.75915085338114</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50.82979300256638</v>
+        <v>50.81513020985176</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50.59420346548318</v>
+        <v>50.55755747150337</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>49.5659994106281</v>
+        <v>49.60101708996452</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>47.7837947312129</v>
+        <v>47.74046413350089</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>49.02960549881109</v>
+        <v>49.01075960163675</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>48.01078778737865</v>
+        <v>47.98711526953721</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>49.99174364945672</v>
+        <v>49.97253572722285</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>49.53161419306724</v>
+        <v>49.51550959150261</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49.68144848414109</v>
+        <v>49.71398608359446</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>48.94525293667434</v>
+        <v>48.92445825821919</v>
       </c>
     </row>
     <row r="7">
@@ -802,7 +802,7 @@
         <v>52.07657608213135</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52.80540259496568</v>
+        <v>52.8054025949657</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>52.89078774967223</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>52.21855565603889</v>
+        <v>52.22473741006992</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>51.52227364346969</v>
+        <v>51.45851112516392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52.32009008436409</v>
+        <v>52.34346620516728</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52.33037688534078</v>
+        <v>52.29747048138109</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>50.68507796982696</v>
+        <v>50.70037373189654</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>48.6817571670267</v>
+        <v>48.72897705976166</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>50.94680188483328</v>
+        <v>50.89238648582694</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>50.52936872246161</v>
+        <v>50.53186637752428</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>51.61403872266763</v>
+        <v>51.61813117948038</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50.24484900032856</v>
+        <v>50.23423698203797</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51.73560493541878</v>
+        <v>51.71702662803111</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>51.49215683320386</v>
+        <v>51.52063889840817</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>53.10385019578131</v>
+        <v>53.08207566196917</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>52.5627831461896</v>
+        <v>52.55440908986466</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53.24528999914646</v>
+        <v>53.25660516396005</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>53.40543868322136</v>
+        <v>53.39643671038463</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>51.70832888161612</v>
+        <v>51.71469160702789</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>49.94686414338963</v>
+        <v>49.9748715024777</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>52.06539400050784</v>
+        <v>52.01139904078252</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>51.53193301928299</v>
+        <v>51.4658504021917</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>52.28483344199623</v>
+        <v>52.26626566477748</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51.05530496708808</v>
+        <v>51.04817708389442</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>52.44911889799312</v>
+        <v>52.47327491006967</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>52.24607677462938</v>
+        <v>52.22959287452152</v>
       </c>
     </row>
     <row r="10">
@@ -941,13 +941,13 @@
         <v>53.81736061951209</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53.966826169411</v>
+        <v>53.96682616941101</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>51.94846319510177</v>
+        <v>51.94846319510178</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>51.01127918877831</v>
+        <v>51.0112791887783</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>52.10926455780813</v>
@@ -962,7 +962,7 @@
         <v>51.79773096487018</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52.99153451816099</v>
+        <v>52.991534518161</v>
       </c>
       <c r="N10" s="5" t="n">
         <v>52.99375450733692</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>53.17507481899003</v>
+        <v>53.2006785955089</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>52.03376871174339</v>
+        <v>51.97856914348672</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>53.3857724282198</v>
+        <v>53.3385283148814</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53.5087789595263</v>
+        <v>53.50434390628386</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>51.42052274357104</v>
+        <v>51.4658012978749</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>50.42546779232912</v>
+        <v>50.40707574178722</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>51.47620351910096</v>
+        <v>51.40104607678234</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>51.47818325883066</v>
+        <v>51.5291225795667</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>52.48156558096436</v>
+        <v>52.50476059306224</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>51.393142970018</v>
+        <v>51.39575666907275</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52.60019337329223</v>
+        <v>52.56792812776396</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>52.68500614161757</v>
+        <v>52.6357661613334</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>53.9200982033016</v>
+        <v>53.91990904338061</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>53.06459403492384</v>
+        <v>53.04096832837927</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54.24873594745083</v>
+        <v>54.22540547510852</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54.33514235155084</v>
+        <v>54.32927161294405</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>52.40241648714778</v>
+        <v>52.44509749414065</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>51.49324575137029</v>
+        <v>51.5517763299839</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>52.66752207257057</v>
+        <v>52.74040792399994</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>52.47208399943523</v>
+        <v>52.46610659160259</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>53.08116066043672</v>
+        <v>53.11272217148696</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>52.15255175828341</v>
+        <v>52.1536839171033</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>53.37378334252762</v>
+        <v>53.34435514408659</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>53.34764938083778</v>
+        <v>53.27832030588492</v>
       </c>
     </row>
     <row r="13">
@@ -1071,13 +1071,13 @@
         <v>52.89489390782281</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>52.81616288052015</v>
+        <v>52.81616288052014</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54.37643133345545</v>
+        <v>54.37643133345546</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52.54789894946636</v>
+        <v>52.54789894946635</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>51.33429405345056</v>
@@ -1089,7 +1089,7 @@
         <v>52.14113531801883</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>51.04935168386385</v>
+        <v>51.04935168386386</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>52.21955162235196</v>
@@ -1098,7 +1098,7 @@
         <v>51.86907822627327</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53.27785577564212</v>
+        <v>53.27785577564213</v>
       </c>
       <c r="N13" s="5" t="n">
         <v>51.82525405725915</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>52.3043303438775</v>
+        <v>52.29373721753363</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>52.12187232149687</v>
+        <v>52.16355349144855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>53.72650462892924</v>
+        <v>53.74020178944173</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51.9905185574514</v>
+        <v>51.94558012005132</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>50.40149846567463</v>
+        <v>50.40511184598406</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>49.84980489610798</v>
+        <v>49.94175377941097</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>51.34421563815048</v>
+        <v>51.25101511027273</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>50.46291009115962</v>
+        <v>50.456966350828</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>51.69713280296295</v>
+        <v>51.68044858150458</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51.28340060376115</v>
+        <v>51.37111807139936</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52.70850095203779</v>
+        <v>52.73676294679438</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>51.4143953942786</v>
+        <v>51.41419611227848</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>53.40084730438851</v>
+        <v>53.42306069062839</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>53.39902020666988</v>
+        <v>53.40628413437263</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>54.89229252044527</v>
+        <v>54.87962196252317</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>53.08004029819413</v>
+        <v>53.04939301558745</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>52.17399571394524</v>
+        <v>52.13586745266326</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>51.60229694410545</v>
+        <v>51.64079564093465</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>52.9598469578941</v>
+        <v>52.83930898012959</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>51.54523197109887</v>
+        <v>51.56803490412557</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>52.69835234734121</v>
+        <v>52.69344831960604</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>52.34008873305705</v>
+        <v>52.37309119993963</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>53.74890868164643</v>
+        <v>53.71953544242076</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>52.1900647794529</v>
+        <v>52.17014206591747</v>
       </c>
     </row>
     <row r="16">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>52.59603032119604</v>
+        <v>52.59603032119603</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>52.0436234463465</v>
@@ -1213,7 +1213,7 @@
         <v>52.44470376488002</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52.65196800196286</v>
+        <v>52.65196800196285</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>50.82321669810099</v>
@@ -1222,19 +1222,19 @@
         <v>49.22916297219799</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>50.61577720954852</v>
+        <v>50.6157772095485</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>50.66624768780775</v>
+        <v>50.66624768780774</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>51.69822965863816</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50.60935400559109</v>
+        <v>50.60935400559107</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51.50908229824793</v>
+        <v>51.50908229824792</v>
       </c>
       <c r="N16" s="5" t="n">
         <v>51.62936949231113</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>52.32675265870133</v>
+        <v>52.33968507784731</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>51.73232162854508</v>
+        <v>51.75264098761956</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52.16760974473603</v>
+        <v>52.16433288416205</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52.34623719145755</v>
+        <v>52.37244932855572</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>50.51026055538906</v>
+        <v>50.53184372387418</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>48.88968666782289</v>
+        <v>48.89129108711596</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>50.23036337836214</v>
+        <v>50.27950209378875</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>50.33930295717315</v>
+        <v>50.37012311210923</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>51.50137552451724</v>
+        <v>51.51017964938892</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50.36762684734715</v>
+        <v>50.36017924509703</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51.2986482011171</v>
+        <v>51.29394237484494</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>51.41918987547455</v>
+        <v>51.41818527044266</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>52.85282093526885</v>
+        <v>52.83532285752397</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>52.31466225339761</v>
+        <v>52.3103716946067</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52.68563189450238</v>
+        <v>52.69624690291815</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52.92942447865726</v>
+        <v>52.94392878414708</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>51.12774479914369</v>
+        <v>51.11325072415281</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>49.56528157657734</v>
+        <v>49.5689138615527</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>50.91670791675691</v>
+        <v>50.93413098043798</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>50.93684369039389</v>
+        <v>50.93272496356482</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>51.89724808864805</v>
+        <v>51.89154009175775</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>50.84188382442171</v>
+        <v>50.82236271425077</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51.74175388966415</v>
+        <v>51.71762130325665</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>51.84841759303321</v>
+        <v>51.85646911623601</v>
       </c>
     </row>
     <row r="19">
